--- a/plots/METRICS-statsAlldata_and_bystad.xlsx
+++ b/plots/METRICS-statsAlldata_and_bystad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minunno\Documents\github\forClimate\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minunno\Documents\github\forClimate\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89692665-A511-47FA-9C52-6F1070DAEBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15761F92-235D-4369-BC8D-BB8F413E9887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1401,7 +1401,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>MSE H &amp; D</a:t>
+              <a:t>RMSE H &amp; D</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1893,7 +1893,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>MSE G</a:t>
+              <a:t>RMSE G</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2349,7 +2349,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>MSE Tree density</a:t>
+              <a:t>RMSE Tree density</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2805,7 +2805,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>MSE Volumes</a:t>
+              <a:t>RMSE Volumes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7014,8 +7014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
